--- a/Income/ORLY_inc.xlsx
+++ b/Income/ORLY_inc.xlsx
@@ -1987,7 +1987,7 @@
         <v>0.53</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.5298</v>
+        <v>0.5297</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.5315</v>
@@ -2371,7 +2371,7 @@
         <v>0.1341</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1371</v>
+        <v>0.137</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1369</v>
@@ -3505,16 +3505,16 @@
         <v>0.2356</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2335</v>
+        <v>0.2336</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.2267</v>
+        <v>0.2268</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.2137</v>
+        <v>0.2138</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2162</v>
+        <v>0.2163</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.2181</v>
@@ -3635,7 +3635,7 @@
         <v>0.2281</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2258</v>
+        <v>0.2259</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0.1691</v>
